--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H2">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I2">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J2">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>4.192320434172951</v>
+        <v>4.75800006696</v>
       </c>
       <c r="R2">
-        <v>4.192320434172951</v>
+        <v>19.03200026784</v>
       </c>
       <c r="S2">
-        <v>0.01010769167551477</v>
+        <v>0.01036801484357004</v>
       </c>
       <c r="T2">
-        <v>0.01010769167551477</v>
+        <v>0.005850222999300622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H3">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I3">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J3">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>16.16756396285722</v>
+        <v>18.491691610032</v>
       </c>
       <c r="R3">
-        <v>16.16756396285722</v>
+        <v>110.950149660192</v>
       </c>
       <c r="S3">
-        <v>0.03898002412903893</v>
+        <v>0.04029468902845713</v>
       </c>
       <c r="T3">
-        <v>0.03898002412903893</v>
+        <v>0.03410482913951576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H4">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I4">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J4">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>23.2036806648396</v>
+        <v>25.450712549808</v>
       </c>
       <c r="R4">
-        <v>23.2036806648396</v>
+        <v>152.704275298848</v>
       </c>
       <c r="S4">
-        <v>0.05594411342833597</v>
+        <v>0.0554588822577379</v>
       </c>
       <c r="T4">
-        <v>0.05594411342833597</v>
+        <v>0.04693957812487168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H5">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I5">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J5">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>23.12545709656641</v>
+        <v>25.186161019024</v>
       </c>
       <c r="R5">
-        <v>23.12545709656641</v>
+        <v>151.116966114144</v>
       </c>
       <c r="S5">
-        <v>0.05575551627258923</v>
+        <v>0.05488240597369905</v>
       </c>
       <c r="T5">
-        <v>0.05575551627258923</v>
+        <v>0.04645165711979226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H6">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I6">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J6">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>3.152895713770527</v>
+        <v>3.722117633088001</v>
       </c>
       <c r="R6">
-        <v>3.152895713770527</v>
+        <v>22.332705798528</v>
       </c>
       <c r="S6">
-        <v>0.007601636912120123</v>
+        <v>0.008110754587279121</v>
       </c>
       <c r="T6">
-        <v>0.007601636912120123</v>
+        <v>0.006864822785860065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H7">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I7">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J7">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>7.555451730744652</v>
+        <v>8.160513314592</v>
       </c>
       <c r="R7">
-        <v>7.555451730744652</v>
+        <v>32.642053258368</v>
       </c>
       <c r="S7">
-        <v>0.01821620693425527</v>
+        <v>0.01778232912697269</v>
       </c>
       <c r="T7">
-        <v>0.01821620693425527</v>
+        <v>0.01003380033780198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H8">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I8">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J8">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>4.311183074573518</v>
+        <v>5.167675768325</v>
       </c>
       <c r="R8">
-        <v>4.311183074573518</v>
+        <v>31.00605460995</v>
       </c>
       <c r="S8">
-        <v>0.01039426970307042</v>
+        <v>0.01126072684294505</v>
       </c>
       <c r="T8">
-        <v>0.01039426970307042</v>
+        <v>0.009530912738752674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H9">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I9">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J9">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>16.6259543391762</v>
+        <v>20.083872489215</v>
       </c>
       <c r="R9">
-        <v>16.6259543391762</v>
+        <v>180.754852402935</v>
       </c>
       <c r="S9">
-        <v>0.04008520410361532</v>
+        <v>0.04376416249560757</v>
       </c>
       <c r="T9">
-        <v>0.04008520410361532</v>
+        <v>0.05556201029219792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H10">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I10">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J10">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>23.86156233064755</v>
+        <v>27.642082530335</v>
       </c>
       <c r="R10">
-        <v>23.86156233064755</v>
+        <v>248.778742773015</v>
       </c>
       <c r="S10">
-        <v>0.05753026724013843</v>
+        <v>0.0602340306743234</v>
       </c>
       <c r="T10">
-        <v>0.05753026724013843</v>
+        <v>0.07647178973442527</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H11">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I11">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J11">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>23.78112093098182</v>
+        <v>27.35475245133834</v>
       </c>
       <c r="R11">
-        <v>23.78112093098182</v>
+        <v>246.192772062045</v>
       </c>
       <c r="S11">
-        <v>0.05733632288914361</v>
+        <v>0.05960791834096545</v>
       </c>
       <c r="T11">
-        <v>0.05733632288914361</v>
+        <v>0.07567689139920412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H12">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I12">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J12">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>3.242288095705742</v>
+        <v>4.04260126706</v>
       </c>
       <c r="R12">
-        <v>3.242288095705742</v>
+        <v>36.38341140354001</v>
       </c>
       <c r="S12">
-        <v>0.00781716209654445</v>
+        <v>0.008809110835152394</v>
       </c>
       <c r="T12">
-        <v>0.00781716209654445</v>
+        <v>0.01118385178596697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H13">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I13">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J13">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>7.769667451187907</v>
+        <v>8.863153913289999</v>
       </c>
       <c r="R13">
-        <v>7.769667451187907</v>
+        <v>53.17892347974</v>
       </c>
       <c r="S13">
-        <v>0.01873268139947964</v>
+        <v>0.01931343212286869</v>
       </c>
       <c r="T13">
-        <v>0.01873268139947964</v>
+        <v>0.01634660344897796</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H14">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I14">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J14">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>0.667699239621075</v>
+        <v>0.7113276852966667</v>
       </c>
       <c r="R14">
-        <v>0.667699239621075</v>
+        <v>4.26796611178</v>
       </c>
       <c r="S14">
-        <v>0.001609823998913119</v>
+        <v>0.001550032765028997</v>
       </c>
       <c r="T14">
-        <v>0.001609823998913119</v>
+        <v>0.001311924819040829</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H15">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I15">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J15">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>2.574963038734057</v>
+        <v>2.764533838812667</v>
       </c>
       <c r="R15">
-        <v>2.574963038734057</v>
+        <v>24.880804549314</v>
       </c>
       <c r="S15">
-        <v>0.006208240252633494</v>
+        <v>0.006024112541611354</v>
       </c>
       <c r="T15">
-        <v>0.006208240252633494</v>
+        <v>0.007648079706128554</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H16">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I16">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J16">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>3.695585816874723</v>
+        <v>3.804917232540666</v>
       </c>
       <c r="R16">
-        <v>3.695585816874723</v>
+        <v>34.244255092866</v>
       </c>
       <c r="S16">
-        <v>0.008910063670918834</v>
+        <v>0.008291180704152924</v>
       </c>
       <c r="T16">
-        <v>0.008910063670918834</v>
+        <v>0.01052629917606338</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H17">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I17">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J17">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>3.683127366268059</v>
+        <v>3.765366407533111</v>
       </c>
       <c r="R17">
-        <v>3.683127366268059</v>
+        <v>33.888297667798</v>
       </c>
       <c r="S17">
-        <v>0.008880026325380951</v>
+        <v>0.008204996690915662</v>
       </c>
       <c r="T17">
-        <v>0.008880026325380951</v>
+        <v>0.01041688186387347</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H18">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I18">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J18">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>0.502152949361666</v>
+        <v>0.5564618081306667</v>
       </c>
       <c r="R18">
-        <v>0.502152949361666</v>
+        <v>5.008156273176001</v>
       </c>
       <c r="S18">
-        <v>0.001210691612388499</v>
+        <v>0.001212569189866529</v>
       </c>
       <c r="T18">
-        <v>0.001210691612388499</v>
+        <v>0.001539450956341918</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H19">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I19">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J19">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>1.203335826739388</v>
+        <v>1.220008189409333</v>
       </c>
       <c r="R19">
-        <v>1.203335826739388</v>
+        <v>7.320049136455999</v>
       </c>
       <c r="S19">
-        <v>0.002901244718709549</v>
+        <v>0.002658483152387757</v>
       </c>
       <c r="T19">
-        <v>0.002901244718709549</v>
+        <v>0.002250100841290381</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H20">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I20">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J20">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>0.2788704656975921</v>
+        <v>0.5577211568483333</v>
       </c>
       <c r="R20">
-        <v>0.2788704656975921</v>
+        <v>3.34632694109</v>
       </c>
       <c r="S20">
-        <v>0.00067235716566464</v>
+        <v>0.00121531339878083</v>
       </c>
       <c r="T20">
-        <v>0.00067235716566464</v>
+        <v>0.001028623295420216</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H21">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I21">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J21">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>1.07545598250699</v>
+        <v>2.167550965046333</v>
       </c>
       <c r="R21">
-        <v>1.07545598250699</v>
+        <v>19.507958685417</v>
       </c>
       <c r="S21">
-        <v>0.002592926197425302</v>
+        <v>0.004723245116335952</v>
       </c>
       <c r="T21">
-        <v>0.002592926197425302</v>
+        <v>0.005996527268007723</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H22">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I22">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J22">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>1.543493951501485</v>
+        <v>2.983270417430333</v>
       </c>
       <c r="R22">
-        <v>1.543493951501485</v>
+        <v>26.849433756873</v>
       </c>
       <c r="S22">
-        <v>0.003721366534301358</v>
+        <v>0.006500754841322099</v>
       </c>
       <c r="T22">
-        <v>0.003721366534301358</v>
+        <v>0.008253214200930855</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H23">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I23">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J23">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>1.538290569924291</v>
+        <v>2.952260332579889</v>
       </c>
       <c r="R23">
-        <v>1.538290569924291</v>
+        <v>26.570342993219</v>
       </c>
       <c r="S23">
-        <v>0.00370882117249561</v>
+        <v>0.006433181698088582</v>
       </c>
       <c r="T23">
-        <v>0.00370882117249561</v>
+        <v>0.00816742483662636</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H24">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I24">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J24">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>0.2097286001394558</v>
+        <v>0.4362975458253334</v>
       </c>
       <c r="R24">
-        <v>0.2097286001394558</v>
+        <v>3.926677912428</v>
       </c>
       <c r="S24">
-        <v>0.0005056560105633113</v>
+        <v>0.0009507228599558292</v>
       </c>
       <c r="T24">
-        <v>0.0005056560105633113</v>
+        <v>0.001207016661982172</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H25">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I25">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J25">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>0.5025838019283227</v>
+        <v>0.9565554565446667</v>
       </c>
       <c r="R25">
-        <v>0.5025838019283227</v>
+        <v>5.739332739268</v>
       </c>
       <c r="S25">
-        <v>0.001211730398657285</v>
+        <v>0.002084401225847313</v>
       </c>
       <c r="T25">
-        <v>0.001211730398657285</v>
+        <v>0.001764206385003135</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H26">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I26">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J26">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>5.160386294812996</v>
+        <v>5.984139210431668</v>
       </c>
       <c r="R26">
-        <v>5.160386294812996</v>
+        <v>35.90483526259001</v>
       </c>
       <c r="S26">
-        <v>0.01244170010702241</v>
+        <v>0.01303985777355952</v>
       </c>
       <c r="T26">
-        <v>0.01244170010702241</v>
+        <v>0.01103674285851318</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H27">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I27">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J27">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>19.90088229286317</v>
+        <v>23.25701035592967</v>
       </c>
       <c r="R27">
-        <v>19.90088229286317</v>
+        <v>209.313093203367</v>
       </c>
       <c r="S27">
-        <v>0.0479810609530984</v>
+        <v>0.05067865178518254</v>
       </c>
       <c r="T27">
-        <v>0.0479810609530984</v>
+        <v>0.06434049257461828</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H28">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I28">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J28">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>28.56173748457219</v>
+        <v>32.00937468671367</v>
       </c>
       <c r="R28">
-        <v>28.56173748457219</v>
+        <v>288.0843721804231</v>
       </c>
       <c r="S28">
-        <v>0.06886239750612029</v>
+        <v>0.06975066566093693</v>
       </c>
       <c r="T28">
-        <v>0.06886239750612029</v>
+        <v>0.08855389849467818</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H29">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I29">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J29">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>28.46545099216625</v>
+        <v>31.67664808598546</v>
       </c>
       <c r="R29">
-        <v>28.46545099216625</v>
+        <v>285.0898327738691</v>
       </c>
       <c r="S29">
-        <v>0.06863025060966099</v>
+        <v>0.06902563113242653</v>
       </c>
       <c r="T29">
-        <v>0.06863025060966099</v>
+        <v>0.08763341073395989</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H30">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I30">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J30">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>3.88094376033205</v>
+        <v>4.681309323358668</v>
       </c>
       <c r="R30">
-        <v>3.88094376033205</v>
+        <v>42.13178391022802</v>
       </c>
       <c r="S30">
-        <v>0.00935696198689734</v>
+        <v>0.01020090035075099</v>
       </c>
       <c r="T30">
-        <v>0.00935696198689734</v>
+        <v>0.01295083689388544</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H31">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I31">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J31">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N31">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O31">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P31">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q31">
-        <v>9.300111996364485</v>
+        <v>10.26348192851134</v>
       </c>
       <c r="R31">
-        <v>9.300111996364485</v>
+        <v>61.58089157106801</v>
       </c>
       <c r="S31">
-        <v>0.02242258579300438</v>
+        <v>0.02236484478435653</v>
       </c>
       <c r="T31">
-        <v>0.02242258579300438</v>
+        <v>0.01892927401831038</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H32">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I32">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J32">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N32">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O32">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P32">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q32">
-        <v>7.855799059462652</v>
+        <v>8.278998661045001</v>
       </c>
       <c r="R32">
-        <v>7.855799059462652</v>
+        <v>33.11599464418001</v>
       </c>
       <c r="S32">
-        <v>0.01894034485307944</v>
+        <v>0.0180405169818449</v>
       </c>
       <c r="T32">
-        <v>0.01894034485307944</v>
+        <v>0.01017948459361207</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H33">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I33">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J33">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N33">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P33">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q33">
-        <v>30.29566460090306</v>
+        <v>32.175848660239</v>
       </c>
       <c r="R33">
-        <v>30.29566460090306</v>
+        <v>193.055091961434</v>
       </c>
       <c r="S33">
-        <v>0.073042898723734</v>
+        <v>0.07011342408974913</v>
       </c>
       <c r="T33">
-        <v>0.073042898723734</v>
+        <v>0.05934296570147425</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H34">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I34">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J34">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N34">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O34">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P34">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q34">
-        <v>43.48032446591334</v>
+        <v>44.284659974191</v>
       </c>
       <c r="R34">
-        <v>43.48032446591334</v>
+        <v>265.707959845146</v>
       </c>
       <c r="S34">
-        <v>0.1048311360148915</v>
+        <v>0.09649937063750873</v>
       </c>
       <c r="T34">
-        <v>0.1048311360148915</v>
+        <v>0.08167564081059876</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H35">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I35">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J35">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N35">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O35">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P35">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q35">
-        <v>43.33374487026526</v>
+        <v>43.82433594343967</v>
       </c>
       <c r="R35">
-        <v>43.33374487026526</v>
+        <v>262.946015660638</v>
       </c>
       <c r="S35">
-        <v>0.1044777323612357</v>
+        <v>0.09549629238687493</v>
       </c>
       <c r="T35">
-        <v>0.1044777323612357</v>
+        <v>0.08082665020721502</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H36">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I36">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J36">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N36">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O36">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P36">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q36">
-        <v>5.90806823374621</v>
+        <v>6.476546125876001</v>
       </c>
       <c r="R36">
-        <v>5.90806823374621</v>
+        <v>38.859276755256</v>
       </c>
       <c r="S36">
-        <v>0.01424436252960006</v>
+        <v>0.01411284687329807</v>
       </c>
       <c r="T36">
-        <v>0.01424436252960006</v>
+        <v>0.01194490497112565</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H37">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I37">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J37">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N37">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O37">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P37">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q37">
-        <v>14.1578182136043</v>
+        <v>14.199427880234</v>
       </c>
       <c r="R37">
-        <v>14.1578182136043</v>
+        <v>56.797711520936</v>
       </c>
       <c r="S37">
-        <v>0.03413452371975725</v>
+        <v>0.03094154622963902</v>
       </c>
       <c r="T37">
-        <v>0.03413452371975725</v>
+        <v>0.01745897822463267</v>
       </c>
     </row>
   </sheetData>
